--- a/Teams/Brentford_stats.xlsx
+++ b/Teams/Brentford_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7729,7 +7729,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-162</t>
+          <t>19-163</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-333</t>
+          <t>18-334</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-296</t>
+          <t>19-297</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10375,7 +10375,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>22-183</t>
+          <t>22-184</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-178</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11060,7 +11060,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -11974,7 +11974,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -12926,7 +12926,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13074,7 +13074,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -13567,7 +13567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -13771,7 +13771,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -14689,7 +14689,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -14791,7 +14791,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -14995,7 +14995,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -15199,7 +15199,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -15301,7 +15301,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -15505,7 +15505,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -15709,7 +15709,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -15913,7 +15913,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -16111,7 +16111,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -16769,7 +16769,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -16847,7 +16847,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -17081,7 +17081,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -17159,7 +17159,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -17237,7 +17237,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -17627,7 +17627,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -17705,7 +17705,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -17861,7 +17861,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -18407,7 +18407,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -18485,7 +18485,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -19131,7 +19131,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -19293,7 +19293,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -19536,7 +19536,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -19860,7 +19860,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -19941,7 +19941,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -20103,7 +20103,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -20265,7 +20265,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -20346,7 +20346,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -20508,7 +20508,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -20589,7 +20589,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -20751,7 +20751,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -20994,7 +20994,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -21752,7 +21752,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -21833,7 +21833,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21914,7 +21914,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -22157,7 +22157,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -22238,7 +22238,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -22481,7 +22481,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -22643,7 +22643,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -22724,7 +22724,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -23127,7 +23127,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -23208,7 +23208,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -23289,7 +23289,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -23607,7 +23607,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -23767,7 +23767,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -24222,7 +24222,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -24321,7 +24321,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -24618,7 +24618,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24816,7 +24816,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24915,7 +24915,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -25014,7 +25014,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -25212,7 +25212,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -25410,7 +25410,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -25608,7 +25608,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -25806,7 +25806,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -26194,7 +26194,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -26289,7 +26289,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -26388,7 +26388,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -26768,7 +26768,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -27312,7 +27312,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-324</t>
+          <t>23-325</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -27429,7 +27429,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25-225</t>
+          <t>25-226</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -27546,7 +27546,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31-280</t>
+          <t>31-281</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24-026</t>
+          <t>24-027</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -27780,7 +27780,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24-260</t>
+          <t>24-261</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28-198</t>
+          <t>28-199</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -28014,7 +28014,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26-314</t>
+          <t>26-315</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -28131,7 +28131,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31-010</t>
+          <t>31-011</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31-295</t>
+          <t>31-296</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23-090</t>
+          <t>23-091</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -28482,7 +28482,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23-113</t>
+          <t>23-114</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -28599,7 +28599,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26-337</t>
+          <t>26-338</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -28716,7 +28716,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25-269</t>
+          <t>25-270</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>29-078</t>
+          <t>29-079</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -28950,7 +28950,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21-019</t>
+          <t>21-020</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -29067,7 +29067,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22-202</t>
+          <t>22-203</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -29184,7 +29184,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>35-180</t>
+          <t>35-181</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -29301,7 +29301,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>23-158</t>
+          <t>23-159</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>23-267</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -29535,7 +29535,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>23-316</t>
+          <t>23-317</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -29652,7 +29652,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20-253</t>
+          <t>20-254</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19-069</t>
+          <t>19-070</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20-086</t>
+          <t>20-087</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -30003,7 +30003,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>27-078</t>
+          <t>27-079</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -30120,7 +30120,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18-265</t>
+          <t>18-266</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -30237,7 +30237,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27-255</t>
+          <t>27-256</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>22-008</t>
+          <t>22-009</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -30471,7 +30471,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19-162</t>
+          <t>19-163</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -30534,7 +30534,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18-333</t>
+          <t>18-334</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -30597,7 +30597,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>19-296</t>
+          <t>19-297</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -30660,7 +30660,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>19-050</t>
+          <t>19-051</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>22-183</t>
+          <t>22-184</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -30786,7 +30786,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>19-177</t>
+          <t>19-178</t>
         </is>
       </c>
       <c r="F36" t="n">

--- a/Teams/Brentford_stats.xlsx
+++ b/Teams/Brentford_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5916,7 +5916,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -8904,7 +8904,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-166</t>
+          <t>19-169</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-337</t>
+          <t>18-340</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-300</t>
+          <t>19-303</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-054</t>
+          <t>19-057</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-190</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19-181</t>
+          <t>19-184</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9535,7 +9535,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -10983,7 +10983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -11519,7 +11519,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -11647,7 +11647,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -11777,7 +11777,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12247,7 +12247,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12615,7 +12615,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12891,7 +12891,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -13167,7 +13167,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -13351,7 +13351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -14269,7 +14269,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -14623,7 +14623,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15146,7 +15146,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15214,7 +15214,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15758,7 +15758,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -15962,7 +15962,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -16030,7 +16030,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -16166,7 +16166,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -16234,7 +16234,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -16302,7 +16302,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -16370,7 +16370,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -16438,7 +16438,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -16574,7 +16574,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -16642,7 +16642,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -16770,7 +16770,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -17147,7 +17147,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -17431,7 +17431,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -17573,7 +17573,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -17928,7 +17928,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17999,7 +17999,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -18212,7 +18212,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -18354,7 +18354,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -18496,7 +18496,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -18567,7 +18567,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -18638,7 +18638,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -18709,7 +18709,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -18780,7 +18780,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -18985,7 +18985,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -19291,7 +19291,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -19362,7 +19362,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -19433,7 +19433,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -19504,7 +19504,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -19575,7 +19575,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -19646,7 +19646,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -19717,7 +19717,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19930,7 +19930,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -20001,7 +20001,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -20143,7 +20143,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -20285,7 +20285,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -20496,7 +20496,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -20567,7 +20567,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -20707,7 +20707,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20847,7 +20847,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20985,7 +20985,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -21188,7 +21188,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -21551,7 +21551,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21729,7 +21729,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21907,7 +21907,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -22085,7 +22085,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -22530,7 +22530,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22886,7 +22886,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -23056,7 +23056,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -23145,7 +23145,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -23234,7 +23234,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -23319,7 +23319,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -23578,7 +23578,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -23663,7 +23663,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -23748,7 +23748,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -23914,7 +23914,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -24247,7 +24247,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-328</t>
+          <t>23-331</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -24354,7 +24354,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-229</t>
+          <t>25-232</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -24461,7 +24461,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31-284</t>
+          <t>31-287</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24-030</t>
+          <t>24-033</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24-264</t>
+          <t>24-267</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -24782,7 +24782,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28-202</t>
+          <t>28-205</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -24889,7 +24889,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26-318</t>
+          <t>26-321</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -24996,7 +24996,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31-014</t>
+          <t>31-017</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -25103,7 +25103,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31-299</t>
+          <t>31-302</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -25210,7 +25210,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23-094</t>
+          <t>23-097</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>23-117</t>
+          <t>23-120</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26-341</t>
+          <t>26-344</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25-273</t>
+          <t>25-276</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -25638,7 +25638,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>29-082</t>
+          <t>29-085</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>21-023</t>
+          <t>21-026</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -25852,7 +25852,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22-206</t>
+          <t>22-209</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35-184</t>
+          <t>35-187</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -26066,7 +26066,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>23-162</t>
+          <t>23-165</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -26173,7 +26173,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>23-271</t>
+          <t>23-274</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -26280,7 +26280,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>23-320</t>
+          <t>23-323</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -26387,7 +26387,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20-257</t>
+          <t>20-260</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19-073</t>
+          <t>19-076</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -26601,7 +26601,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>20-090</t>
+          <t>20-093</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>27-082</t>
+          <t>27-085</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -26815,7 +26815,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18-269</t>
+          <t>18-272</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -26922,7 +26922,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>27-259</t>
+          <t>27-262</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -27029,7 +27029,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>22-012</t>
+          <t>22-015</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -27136,7 +27136,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19-166</t>
+          <t>19-169</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -27189,7 +27189,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18-337</t>
+          <t>18-340</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19-300</t>
+          <t>19-303</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -27295,7 +27295,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19-054</t>
+          <t>19-057</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -27348,7 +27348,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22-187</t>
+          <t>22-190</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -27401,7 +27401,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>19-181</t>
+          <t>19-184</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -27553,7 +27553,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27.2</t>
+          <t>27.3</t>
         </is>
       </c>
       <c r="E38" t="n">
